--- a/Blog-Skeleton/BlogIntegrationTests/DataDrivenTests/LoginUserData.xlsx
+++ b/Blog-Skeleton/BlogIntegrationTests/DataDrivenTests/LoginUserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="6160" windowHeight="890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6360" windowHeight="930"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
